--- a/Sample Files/sample.xlsx
+++ b/Sample Files/sample.xlsx
@@ -16,25 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Question1 </t>
-  </si>
-  <si>
-    <t>Op1</t>
-  </si>
-  <si>
-    <t>Op2</t>
-  </si>
-  <si>
-    <t>Op3</t>
-  </si>
-  <si>
-    <t>Op4</t>
-  </si>
-  <si>
-    <t>Op2 is right because..</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>Op3 is right because..</t>
   </si>
@@ -61,6 +43,36 @@
   </si>
   <si>
     <t>Q_no</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
   </si>
 </sst>
 </file>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -407,28 +419,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -436,25 +448,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -462,25 +474,233 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
